--- a/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
+++ b/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Group Name</t>
   </si>
@@ -111,12 +111,6 @@
     <t>ATSAMW25H18-MR510PB (Mouser)</t>
   </si>
   <si>
-    <t>2.7V</t>
-  </si>
-  <si>
-    <t>4.3V</t>
-  </si>
-  <si>
     <t>GPS Module</t>
   </si>
   <si>
@@ -153,16 +147,16 @@
     <t>OLED module</t>
   </si>
   <si>
-    <t>AOM6448A0-0.66WW-ANO</t>
+    <t>AOM12864A0-1.3WW-ANO</t>
   </si>
   <si>
     <t>Orient Display</t>
   </si>
   <si>
-    <t>SPI</t>
+    <t>2544-AOM12864A0-1.3WW-ANO-ND</t>
   </si>
   <si>
-    <t>active</t>
+    <t>SPI</t>
   </si>
   <si>
     <t>-40°C ~ 70°C (TA)</t>
@@ -263,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -343,8 +337,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -570,8 +573,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="25.43"/>
     <col customWidth="1" min="2" max="2" width="31.29"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="29.29"/>
+    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="4" max="4" width="34.29"/>
     <col customWidth="1" min="5" max="5" width="12.71"/>
     <col customWidth="1" min="6" max="6" width="15.14"/>
     <col customWidth="1" min="7" max="7" width="16.29"/>
@@ -762,11 +765,11 @@
       <c r="D7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>31</v>
+      <c r="E7" s="16">
+        <v>2.7</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
+      <c r="F7" s="16">
+        <v>4.3</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>21</v>
@@ -790,16 +793,16 @@
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>-0.1</v>
@@ -808,7 +811,7 @@
         <v>3.6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="10">
         <v>104.0</v>
@@ -820,23 +823,23 @@
         <v>23</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="25">
         <v>1.71</v>
@@ -845,7 +848,7 @@
         <v>3.6</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="10">
         <v>30.0</v>
@@ -864,37 +867,37 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="E10" s="30">
         <v>-0.3</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="30">
         <v>4.0</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="10">
-        <v>204.0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="K10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -903,14 +906,14 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
@@ -918,14 +921,14 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="29"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>

--- a/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
+++ b/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Group Name</t>
   </si>
@@ -147,19 +147,67 @@
     <t>OLED module</t>
   </si>
   <si>
-    <t>AOM12864A0-1.3WW-ANO</t>
+    <t>Product ID: 326
+Monochrome 0.96" 128x64 OLED Graphic Display - STEMMA QT</t>
   </si>
   <si>
-    <t>Orient Display</t>
+    <t>adafruit industries</t>
   </si>
   <si>
-    <t>2544-AOM12864A0-1.3WW-ANO-ND</t>
+    <t>N/A - OLED use dev board!</t>
+  </si>
+  <si>
+    <t>display: 17V
+logic: 3.6V</t>
   </si>
   <si>
     <t>SPI</t>
   </si>
   <si>
-    <t>-40°C ~ 70°C (TA)</t>
+    <t>No info
+Typically in stock</t>
+  </si>
+  <si>
+    <t>-30°C ~ 70°C</t>
+  </si>
+  <si>
+    <t>LiPo Battery</t>
+  </si>
+  <si>
+    <t>LP675365JU+PCM+ 2 WIRES 70MM</t>
+  </si>
+  <si>
+    <t>Jauch Quartz</t>
+  </si>
+  <si>
+    <t>1908-LP675365JU+PCM+2WIRES70MM-ND</t>
+  </si>
+  <si>
+    <t>output 3.7</t>
+  </si>
+  <si>
+    <t>Wire Leads</t>
+  </si>
+  <si>
+    <t>0°C ~60°C (TA)</t>
+  </si>
+  <si>
+    <t>Buck Converter</t>
+  </si>
+  <si>
+    <t>TPS62082DSGR</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>296-49331-2-ND</t>
+  </si>
+  <si>
+    <t>max input 6</t>
+  </si>
+  <si>
+    <t>0°C ~ 60°C (TA)</t>
   </si>
 </sst>
 </file>
@@ -169,20 +217,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
@@ -193,26 +232,24 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -226,18 +263,8 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +277,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -257,103 +290,100 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +604,7 @@
     <col customWidth="1" min="1" max="1" width="25.43"/>
     <col customWidth="1" min="2" max="2" width="31.29"/>
     <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="34.29"/>
+    <col customWidth="1" min="4" max="4" width="38.0"/>
     <col customWidth="1" min="5" max="5" width="12.71"/>
     <col customWidth="1" min="6" max="6" width="15.14"/>
     <col customWidth="1" min="7" max="7" width="16.29"/>
@@ -688,34 +718,34 @@
       <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>2.7</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>4.3</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>61.0</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
@@ -725,71 +755,72 @@
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
         <v>2.7</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4.3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>4000.0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>2.7</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>4.3</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>69.0</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -798,137 +829,181 @@
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <v>-0.1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="2">
         <v>3.6</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>104.0</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="6">
         <v>1.71</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="6">
         <v>3.6</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>30.0</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="26" t="s">
+    <row r="10" ht="61.5" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="2">
         <v>-0.3</v>
       </c>
-      <c r="F10" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="10">
-        <v>94.0</v>
+      <c r="G10" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>47</v>
+      <c r="J10" s="25" t="s">
+        <v>49</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="32"/>
+      <c r="A11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="28">
+        <v>208.0</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="32"/>
+    <row r="12">
+      <c r="A12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2.3</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="31">
+        <v>15307.0</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>

--- a/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
+++ b/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>Group Name</t>
   </si>
@@ -209,6 +209,18 @@
   <si>
     <t>0°C ~ 60°C (TA)</t>
   </si>
+  <si>
+    <t>LiPo Charging/Power Management</t>
+  </si>
+  <si>
+    <t>BQ24075TRGTT</t>
+  </si>
+  <si>
+    <t>595-BQ24075RGTR (Mouser)</t>
+  </si>
+  <si>
+    <t>output 5.2</t>
+  </si>
 </sst>
 </file>
 
@@ -290,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -384,6 +396,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,18 +1026,40 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="30">
+        <v>3.3</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="33"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">

--- a/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
+++ b/ESE516_SPRING2021_ASSIGNMENT_A1_PartResearch.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh60a5ViMrmP9oTDHkYGqJuTfW53w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgnOa7Mk/tri4qdc5QLcQIKxSNqkw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Group Name</t>
   </si>
@@ -147,25 +147,13 @@
     <t>OLED module</t>
   </si>
   <si>
-    <t>Product ID: 326
-Monochrome 0.96" 128x64 OLED Graphic Display - STEMMA QT</t>
+    <t>LCD-14532</t>
   </si>
   <si>
-    <t>adafruit industries</t>
+    <t>SparkFun Electronics</t>
   </si>
   <si>
-    <t>N/A - OLED use dev board!</t>
-  </si>
-  <si>
-    <t>display: 17V
-logic: 3.6V</t>
-  </si>
-  <si>
-    <t>SPI</t>
-  </si>
-  <si>
-    <t>No info
-Typically in stock</t>
+    <t>1568-1819-ND</t>
   </si>
   <si>
     <t>-30°C ~ 70°C</t>
@@ -229,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -261,10 +249,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
@@ -276,7 +260,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,12 +273,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -302,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -316,9 +294,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -330,34 +305,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -367,38 +333,23 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -620,8 +571,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.43"/>
-    <col customWidth="1" min="2" max="2" width="31.29"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
+    <col customWidth="1" min="2" max="2" width="31.57"/>
+    <col customWidth="1" min="3" max="3" width="17.86"/>
     <col customWidth="1" min="4" max="4" width="38.0"/>
     <col customWidth="1" min="5" max="5" width="12.71"/>
     <col customWidth="1" min="6" max="6" width="15.14"/>
@@ -714,143 +665,143 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>2.7</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>4.3</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="2">
         <v>61.0</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>2.7</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>4.3</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="2">
         <v>4000.0</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="5">
         <v>2.7</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="5">
         <v>4.3</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="5">
         <v>69.0</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="2">
@@ -862,204 +813,204 @@
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="2">
         <v>104.0</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.71</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>3.6</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="2">
         <v>30.0</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="61.5" customHeight="1">
-      <c r="A10" s="9" t="s">
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2">
-        <v>-0.3</v>
+      <c r="E10" s="21">
+        <v>3.3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="21">
+        <v>19.0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="E11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="G11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="22">
+        <v>208.0</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="J11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="28">
-        <v>208.0</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="E12" s="23">
+        <v>2.3</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="G12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="23">
+        <v>15307.0</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2.3</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="31">
-        <v>15307.0</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>64</v>
+      <c r="G13" s="23" t="s">
+        <v>21</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="H13" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="30">
-        <v>3.3</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
